--- a/One_Day_Server_Food/DBMS/샘플-가공식품영양정보(2021-05-10).xlsx
+++ b/One_Day_Server_Food/DBMS/샘플-가공식품영양정보(2021-05-10).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7693" uniqueCount="4313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7697" uniqueCount="4317">
   <si>
     <t>비스킷</t>
   </si>
@@ -12977,6 +12977,22 @@
   </si>
   <si>
     <t>제조사명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">대표 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표전화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주요품목</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13385,9 +13401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1801"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -75988,9 +76002,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B540"/>
+  <dimension ref="A1:F540"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -75998,15 +76014,27 @@
     <col min="2" max="2" width="71.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4311</v>
       </c>
       <c r="B1" t="s">
         <v>4312</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>4313</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4314</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4315</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4316</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4308</v>
       </c>
@@ -76014,7 +76042,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4079</v>
       </c>
@@ -76022,7 +76050,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3880</v>
       </c>
@@ -76030,7 +76058,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3836</v>
       </c>
@@ -76038,7 +76066,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4269</v>
       </c>
@@ -76046,7 +76074,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3995</v>
       </c>
@@ -76054,7 +76082,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4025</v>
       </c>
@@ -76062,7 +76090,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3864</v>
       </c>
@@ -76070,7 +76098,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3770</v>
       </c>
@@ -76078,7 +76106,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3876</v>
       </c>
@@ -76086,7 +76114,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4283</v>
       </c>
@@ -76094,7 +76122,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3950</v>
       </c>
@@ -76102,7 +76130,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>3866</v>
       </c>
@@ -76110,7 +76138,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4115</v>
       </c>
@@ -76118,7 +76146,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4106</v>
       </c>
@@ -80329,7 +80357,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
